--- a/Examples/Economic Outlook.xlsx
+++ b/Examples/Economic Outlook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1E160D-7D7F-43C2-B9FC-8E8A580B7D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CB1A72-71D0-4299-AFF4-AC4217E735B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{24B8D0D3-4B3E-42BC-84E5-7F51E5030EB0}"/>
   </bookViews>
@@ -493,24 +493,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" cm="1">
-        <f t="array" ref="B2">_xll.xlquoteEconomics($H2,"data",B$1,$I2)</f>
-        <v>5.6769999999999996</v>
+        <f t="array" ref="B2">_xll.xlquoteEconomics($H2,"Value",B$1,$I2)</f>
+        <v>5.6710000000000003</v>
       </c>
       <c r="C2" s="1" cm="1">
-        <f t="array" ref="C2">_xll.xlquoteEconomics($H2,"data",C$1,$I2)</f>
-        <v>3.7080000000000002</v>
+        <f t="array" ref="C2">_xll.xlquoteEconomics($H2,"Value",C$1,$I2)</f>
+        <v>1.641</v>
       </c>
       <c r="D2" s="1" cm="1">
-        <f t="array" ref="D2">_xll.xlquoteEconomics($H2,"data",D$1,$I2)</f>
-        <v>2.25</v>
+        <f t="array" ref="D2">_xll.xlquoteEconomics($H2,"Value",D$1,$I2)</f>
+        <v>0.995</v>
       </c>
       <c r="E2" s="1" cm="1">
-        <f t="array" ref="E2">_xll.xlquoteEconomics($H2,"data",E$1,$I2)</f>
-        <v>1.4379999999999999</v>
+        <f t="array" ref="E2">_xll.xlquoteEconomics($H2,"Value",E$1,$I2)</f>
+        <v>1.2070000000000001</v>
       </c>
       <c r="F2" s="1" cm="1">
-        <f t="array" ref="F2">_xll.xlquoteEconomics($H2,"data",F$1,$I2)</f>
-        <v>1.681</v>
+        <f t="array" ref="F2">_xll.xlquoteEconomics($H2,"Value",F$1,$I2)</f>
+        <v>1.7609999999999999</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
@@ -525,24 +525,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3">_xll.xlquoteEconomics($H3,"data",B$1,$I3)</f>
+        <f t="array" ref="B3">_xll.xlquoteEconomics($H3,"Value",B$1,$I3)</f>
         <v>4.6849999999999996</v>
       </c>
       <c r="C3" s="1" cm="1">
-        <f t="array" ref="C3">_xll.xlquoteEconomics($H3,"data",C$1,$I3)</f>
-        <v>7.6820000000000004</v>
+        <f t="array" ref="C3">_xll.xlquoteEconomics($H3,"Value",C$1,$I3)</f>
+        <v>8.0519999999999996</v>
       </c>
       <c r="D3" s="1" cm="1">
-        <f t="array" ref="D3">_xll.xlquoteEconomics($H3,"data",D$1,$I3)</f>
-        <v>2.8559999999999999</v>
+        <f t="array" ref="D3">_xll.xlquoteEconomics($H3,"Value",D$1,$I3)</f>
+        <v>3.5059999999999998</v>
       </c>
       <c r="E3" s="1" cm="1">
-        <f t="array" ref="E3">_xll.xlquoteEconomics($H3,"data",E$1,$I3)</f>
-        <v>2.258</v>
+        <f t="array" ref="E3">_xll.xlquoteEconomics($H3,"Value",E$1,$I3)</f>
+        <v>2.2320000000000002</v>
       </c>
       <c r="F3" s="1" cm="1">
-        <f t="array" ref="F3">_xll.xlquoteEconomics($H3,"data",F$1,$I3)</f>
-        <v>2.004</v>
+        <f t="array" ref="F3">_xll.xlquoteEconomics($H3,"Value",F$1,$I3)</f>
+        <v>2.044</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
@@ -557,24 +557,24 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" cm="1">
-        <f t="array" ref="B4">_xll.xlquoteEconomics($H4,"data",B$1,$I4)</f>
+        <f t="array" ref="B4">_xll.xlquoteEconomics($H4,"Value",B$1,$I4)</f>
         <v>5.3579999999999997</v>
       </c>
       <c r="C4" s="1" cm="1">
-        <f t="array" ref="C4">_xll.xlquoteEconomics($H4,"data",C$1,$I4)</f>
-        <v>3.5350000000000001</v>
+        <f t="array" ref="C4">_xll.xlquoteEconomics($H4,"Value",C$1,$I4)</f>
+        <v>3.67</v>
       </c>
       <c r="D4" s="1" cm="1">
-        <f t="array" ref="D4">_xll.xlquoteEconomics($H4,"data",D$1,$I4)</f>
-        <v>3.5329999999999999</v>
+        <f t="array" ref="D4">_xll.xlquoteEconomics($H4,"Value",D$1,$I4)</f>
+        <v>4.5570000000000004</v>
       </c>
       <c r="E4" s="1" cm="1">
-        <f t="array" ref="E4">_xll.xlquoteEconomics($H4,"data",E$1,$I4)</f>
-        <v>3.948</v>
+        <f t="array" ref="E4">_xll.xlquoteEconomics($H4,"Value",E$1,$I4)</f>
+        <v>5.42</v>
       </c>
       <c r="F4" s="1" cm="1">
-        <f t="array" ref="F4">_xll.xlquoteEconomics($H4,"data",F$1,$I4)</f>
-        <v>3.9740000000000002</v>
+        <f t="array" ref="F4">_xll.xlquoteEconomics($H4,"Value",F$1,$I4)</f>
+        <v>5.3739999999999997</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
